--- a/贵金属数据/铂/现货铂金年线 1989.xlsx
+++ b/贵金属数据/铂/现货铂金年线 1989.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,386 +502,353 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>20131231</v>
+        <v>19891231</v>
       </c>
       <c r="B2">
-        <v>1536.5</v>
+        <v>495.2</v>
       </c>
       <c r="C2">
-        <v>1740</v>
+        <v>546.20000000000005</v>
       </c>
       <c r="D2">
-        <v>1292</v>
+        <v>490.9</v>
       </c>
       <c r="E2">
-        <v>1440.5</v>
+        <v>493.6</v>
       </c>
       <c r="F2">
-        <v>1155121</v>
-      </c>
-      <c r="G2">
-        <v>1725190272</v>
+        <v>184870</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-96</v>
+        <v>-1.6</v>
       </c>
       <c r="J2" s="1">
-        <v>-6.25E-2</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>20121231</v>
+        <v>19901231</v>
       </c>
       <c r="B3">
-        <v>1394.5</v>
+        <v>480.9</v>
       </c>
       <c r="C3">
-        <v>1733</v>
+        <v>537.9</v>
       </c>
       <c r="D3">
-        <v>1374.5</v>
+        <v>387</v>
       </c>
       <c r="E3">
-        <v>1539</v>
+        <v>412.5</v>
       </c>
       <c r="F3">
-        <v>827145</v>
-      </c>
-      <c r="G3">
-        <v>1281262720</v>
+        <v>381287</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>144.5</v>
+        <v>-68.400000000000006</v>
       </c>
       <c r="J3" s="1">
-        <v>0.1036</v>
+        <v>-0.14219999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>20111231</v>
+        <v>19911231</v>
       </c>
       <c r="B4">
-        <v>1769</v>
+        <v>416</v>
       </c>
       <c r="C4">
-        <v>1912</v>
+        <v>425.25</v>
       </c>
       <c r="D4">
-        <v>1339.7</v>
+        <v>328</v>
       </c>
       <c r="E4">
-        <v>1388.7</v>
-      </c>
-      <c r="F4">
-        <v>575212</v>
-      </c>
-      <c r="G4">
-        <v>996761088</v>
+        <v>332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-380.3</v>
+        <v>-84</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.215</v>
+        <v>-0.2019</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>20101231</v>
+        <v>19921231</v>
       </c>
       <c r="B5">
-        <v>1467.5</v>
+        <v>332</v>
       </c>
       <c r="C5">
-        <v>1806.5</v>
+        <v>395.26</v>
       </c>
       <c r="D5">
-        <v>1444</v>
+        <v>328</v>
       </c>
       <c r="E5">
-        <v>1766.74</v>
-      </c>
-      <c r="F5">
-        <v>737213</v>
-      </c>
-      <c r="G5">
-        <v>1164646784</v>
+        <v>355</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>299.24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1">
-        <v>0.2039</v>
+        <v>6.93E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>20091231</v>
+        <v>19931231</v>
       </c>
       <c r="B6">
-        <v>928</v>
+        <v>354.25</v>
       </c>
       <c r="C6">
-        <v>1506.5</v>
+        <v>422.75</v>
       </c>
       <c r="D6">
-        <v>899.5</v>
+        <v>343.5</v>
       </c>
       <c r="E6">
-        <v>1465.5</v>
-      </c>
-      <c r="F6">
-        <v>1358755</v>
+        <v>394</v>
       </c>
       <c r="G6">
-        <v>1775896448</v>
+        <v>400540</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>537.5</v>
+        <v>39.75</v>
       </c>
       <c r="J6" s="1">
-        <v>0.57920000000000005</v>
+        <v>0.11219999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>20081231</v>
+        <v>19941231</v>
       </c>
       <c r="B7">
-        <v>1526</v>
+        <v>389</v>
       </c>
       <c r="C7">
-        <v>2290</v>
+        <v>428</v>
       </c>
       <c r="D7">
-        <v>732.5</v>
+        <v>378</v>
       </c>
       <c r="E7">
-        <v>929.5</v>
-      </c>
-      <c r="F7">
-        <v>505567</v>
+        <v>416.5</v>
       </c>
       <c r="G7">
-        <v>713716032</v>
+        <v>3602654</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-596.5</v>
+        <v>27.5</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.39090000000000003</v>
+        <v>7.0699999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>20071231</v>
+        <v>19951231</v>
       </c>
       <c r="B8">
-        <v>1129.5</v>
+        <v>418</v>
       </c>
       <c r="C8">
-        <v>1542</v>
+        <v>461</v>
       </c>
       <c r="D8">
-        <v>1103</v>
+        <v>396.5</v>
       </c>
       <c r="E8">
-        <v>1520</v>
-      </c>
-      <c r="F8">
-        <v>346517</v>
-      </c>
-      <c r="G8">
-        <v>445569216</v>
+        <v>399.5</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>390.5</v>
+        <v>-18.5</v>
       </c>
       <c r="J8" s="1">
-        <v>0.34570000000000001</v>
+        <v>-4.4299999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>20061231</v>
+        <v>19961231</v>
       </c>
       <c r="B9">
-        <v>970</v>
+        <v>399</v>
       </c>
       <c r="C9">
-        <v>1395</v>
+        <v>434</v>
       </c>
       <c r="D9">
-        <v>969</v>
+        <v>365.5</v>
       </c>
       <c r="E9">
-        <v>1132</v>
-      </c>
-      <c r="F9">
-        <v>545062</v>
+        <v>370</v>
       </c>
       <c r="G9">
-        <v>600966912</v>
+        <v>40410</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>162</v>
+        <v>-29</v>
       </c>
       <c r="J9" s="1">
-        <v>0.16700000000000001</v>
+        <v>-7.2700000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>20051231</v>
+        <v>19971231</v>
       </c>
       <c r="B10">
-        <v>859</v>
+        <v>369.25</v>
       </c>
       <c r="C10">
-        <v>1015</v>
+        <v>486.5</v>
       </c>
       <c r="D10">
-        <v>839</v>
+        <v>339</v>
       </c>
       <c r="E10">
-        <v>968</v>
+        <v>368.5</v>
       </c>
       <c r="F10">
-        <v>17310</v>
+        <v>12899</v>
       </c>
       <c r="G10">
-        <v>13202469</v>
+        <v>4490</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>109</v>
+        <v>-0.75</v>
       </c>
       <c r="J10" s="1">
-        <v>0.12690000000000001</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>20041231</v>
+        <v>19981231</v>
       </c>
       <c r="B11">
-        <v>811</v>
+        <v>363</v>
       </c>
       <c r="C11">
-        <v>942</v>
+        <v>433</v>
       </c>
       <c r="D11">
-        <v>765</v>
+        <v>328</v>
       </c>
       <c r="E11">
-        <v>859</v>
+        <v>364.2</v>
       </c>
       <c r="F11">
-        <v>3519</v>
+        <v>21353</v>
       </c>
       <c r="G11">
-        <v>2910938</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48</v>
+        <v>1.2</v>
       </c>
       <c r="J11" s="1">
-        <v>5.9200000000000003E-2</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>20031231</v>
+        <v>19991231</v>
       </c>
       <c r="B12">
-        <v>598</v>
+        <v>364.2</v>
       </c>
       <c r="C12">
-        <v>858</v>
+        <v>457</v>
       </c>
       <c r="D12">
-        <v>596</v>
+        <v>337</v>
       </c>
       <c r="E12">
-        <v>811</v>
+        <v>440</v>
       </c>
       <c r="F12">
-        <v>59</v>
+        <v>29872</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>213</v>
+        <v>75.8</v>
       </c>
       <c r="J12" s="1">
-        <v>0.35620000000000002</v>
+        <v>0.20810000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>20021231</v>
+        <v>20001231</v>
       </c>
       <c r="B13">
-        <v>480.5</v>
+        <v>445.5</v>
       </c>
       <c r="C13">
-        <v>609.5</v>
+        <v>629.5</v>
       </c>
       <c r="D13">
-        <v>438</v>
+        <v>406.5</v>
       </c>
       <c r="E13">
-        <v>597.4</v>
+        <v>612.5</v>
       </c>
       <c r="F13">
-        <v>34406</v>
+        <v>179051</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>116.9</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1">
-        <v>0.24329999999999999</v>
+        <v>0.37490000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -918,356 +885,392 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>20001231</v>
+        <v>20021231</v>
       </c>
       <c r="B15">
-        <v>445.5</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>629.5</v>
+        <v>609.5</v>
       </c>
       <c r="D15">
-        <v>406.5</v>
+        <v>438</v>
       </c>
       <c r="E15">
-        <v>612.5</v>
+        <v>597.4</v>
       </c>
       <c r="F15">
-        <v>179051</v>
+        <v>34406</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>167</v>
+        <v>116.9</v>
       </c>
       <c r="J15" s="1">
-        <v>0.37490000000000001</v>
+        <v>0.24329999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>19991231</v>
+        <v>20031231</v>
       </c>
       <c r="B16">
-        <v>364.2</v>
+        <v>598</v>
       </c>
       <c r="C16">
-        <v>457</v>
+        <v>858</v>
       </c>
       <c r="D16">
-        <v>337</v>
+        <v>596</v>
       </c>
       <c r="E16">
-        <v>440</v>
+        <v>811</v>
       </c>
       <c r="F16">
-        <v>29872</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>75.8</v>
+        <v>213</v>
       </c>
       <c r="J16" s="1">
-        <v>0.20810000000000001</v>
+        <v>0.35620000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>19981231</v>
+        <v>20041231</v>
       </c>
       <c r="B17">
-        <v>363</v>
+        <v>811</v>
       </c>
       <c r="C17">
-        <v>433</v>
+        <v>942</v>
       </c>
       <c r="D17">
-        <v>328</v>
+        <v>765</v>
       </c>
       <c r="E17">
-        <v>364.2</v>
+        <v>859</v>
       </c>
       <c r="F17">
-        <v>21353</v>
+        <v>3519</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2910938</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.2</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1">
-        <v>3.3E-3</v>
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>19971231</v>
+        <v>20051231</v>
       </c>
       <c r="B18">
-        <v>369.25</v>
+        <v>859</v>
       </c>
       <c r="C18">
-        <v>486.5</v>
+        <v>1015</v>
       </c>
       <c r="D18">
-        <v>339</v>
+        <v>839</v>
       </c>
       <c r="E18">
-        <v>368.5</v>
+        <v>968</v>
       </c>
       <c r="F18">
-        <v>12899</v>
+        <v>17310</v>
       </c>
       <c r="G18">
-        <v>4490</v>
+        <v>13202469</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.75</v>
+        <v>109</v>
       </c>
       <c r="J18" s="1">
-        <v>-2E-3</v>
+        <v>0.12690000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>19961231</v>
+        <v>20061231</v>
       </c>
       <c r="B19">
-        <v>399</v>
+        <v>970</v>
       </c>
       <c r="C19">
-        <v>434</v>
+        <v>1395</v>
       </c>
       <c r="D19">
-        <v>365.5</v>
+        <v>969</v>
       </c>
       <c r="E19">
-        <v>370</v>
+        <v>1132</v>
+      </c>
+      <c r="F19">
+        <v>545062</v>
       </c>
       <c r="G19">
-        <v>40410</v>
+        <v>600966912</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-29</v>
+        <v>162</v>
       </c>
       <c r="J19" s="1">
-        <v>-7.2700000000000001E-2</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>19951231</v>
+        <v>20071231</v>
       </c>
       <c r="B20">
-        <v>418</v>
+        <v>1129.5</v>
       </c>
       <c r="C20">
-        <v>461</v>
+        <v>1542</v>
       </c>
       <c r="D20">
-        <v>396.5</v>
+        <v>1103</v>
       </c>
       <c r="E20">
-        <v>399.5</v>
+        <v>1520</v>
+      </c>
+      <c r="F20">
+        <v>346517</v>
+      </c>
+      <c r="G20">
+        <v>445569216</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-18.5</v>
+        <v>390.5</v>
       </c>
       <c r="J20" s="1">
-        <v>-4.4299999999999999E-2</v>
+        <v>0.34570000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>19941231</v>
+        <v>20081231</v>
       </c>
       <c r="B21">
-        <v>389</v>
+        <v>1526</v>
       </c>
       <c r="C21">
-        <v>428</v>
+        <v>2290</v>
       </c>
       <c r="D21">
-        <v>378</v>
+        <v>732.5</v>
       </c>
       <c r="E21">
-        <v>416.5</v>
+        <v>929.5</v>
+      </c>
+      <c r="F21">
+        <v>505567</v>
       </c>
       <c r="G21">
-        <v>3602654</v>
+        <v>713716032</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.5</v>
+        <v>-596.5</v>
       </c>
       <c r="J21" s="1">
-        <v>7.0699999999999999E-2</v>
+        <v>-0.39090000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>19931231</v>
+        <v>20091231</v>
       </c>
       <c r="B22">
-        <v>354.25</v>
+        <v>928</v>
       </c>
       <c r="C22">
-        <v>422.75</v>
+        <v>1506.5</v>
       </c>
       <c r="D22">
-        <v>343.5</v>
+        <v>899.5</v>
       </c>
       <c r="E22">
-        <v>394</v>
+        <v>1465.5</v>
+      </c>
+      <c r="F22">
+        <v>1358755</v>
       </c>
       <c r="G22">
-        <v>400540</v>
+        <v>1775896448</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>39.75</v>
+        <v>537.5</v>
       </c>
       <c r="J22" s="1">
-        <v>0.11219999999999999</v>
+        <v>0.57920000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>19921231</v>
+        <v>20101231</v>
       </c>
       <c r="B23">
-        <v>332</v>
+        <v>1467.5</v>
       </c>
       <c r="C23">
-        <v>395.26</v>
+        <v>1806.5</v>
       </c>
       <c r="D23">
-        <v>328</v>
+        <v>1444</v>
       </c>
       <c r="E23">
-        <v>355</v>
+        <v>1766.74</v>
+      </c>
+      <c r="F23">
+        <v>737213</v>
+      </c>
+      <c r="G23">
+        <v>1164646784</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23</v>
+        <v>299.24</v>
       </c>
       <c r="J23" s="1">
-        <v>6.93E-2</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>19911231</v>
+        <v>20111231</v>
       </c>
       <c r="B24">
-        <v>416</v>
+        <v>1769</v>
       </c>
       <c r="C24">
-        <v>425.25</v>
+        <v>1912</v>
       </c>
       <c r="D24">
-        <v>328</v>
+        <v>1339.7</v>
       </c>
       <c r="E24">
-        <v>332</v>
+        <v>1388.7</v>
+      </c>
+      <c r="F24">
+        <v>575212</v>
+      </c>
+      <c r="G24">
+        <v>996761088</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-84</v>
+        <v>-380.3</v>
       </c>
       <c r="J24" s="1">
-        <v>-0.2019</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>19901231</v>
+        <v>20121231</v>
       </c>
       <c r="B25">
-        <v>480.9</v>
+        <v>1394.5</v>
       </c>
       <c r="C25">
-        <v>537.9</v>
+        <v>1733</v>
       </c>
       <c r="D25">
-        <v>387</v>
+        <v>1374.5</v>
       </c>
       <c r="E25">
-        <v>412.5</v>
+        <v>1539</v>
       </c>
       <c r="F25">
-        <v>381287</v>
+        <v>827145</v>
+      </c>
+      <c r="G25">
+        <v>1281262720</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-68.400000000000006</v>
+        <v>144.5</v>
       </c>
       <c r="J25" s="1">
-        <v>-0.14219999999999999</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>19891231</v>
+        <v>20131231</v>
       </c>
       <c r="B26">
-        <v>495.2</v>
+        <v>1536.5</v>
       </c>
       <c r="C26">
-        <v>546.20000000000005</v>
+        <v>1740</v>
       </c>
       <c r="D26">
-        <v>490.9</v>
+        <v>1292</v>
       </c>
       <c r="E26">
-        <v>493.6</v>
+        <v>1438.3</v>
       </c>
       <c r="F26">
-        <v>184870</v>
+        <v>1200579</v>
+      </c>
+      <c r="G26">
+        <v>1790587520</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-1.6</v>
+        <v>-98.2</v>
       </c>
       <c r="J26" s="1">
-        <v>-3.2000000000000002E-3</v>
+        <v>-6.3899999999999998E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
